--- a/scrapers/TA/scrapes/1. Run/Weka/Test/Analyse Instposts für WEKA test.xlsx
+++ b/scrapers/TA/scrapes/1. Run/Weka/Test/Analyse Instposts für WEKA test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ppp/hotelierchallenge/scrapers/TA/scrapes/1. Run/Weka/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9272E9CD-48A6-2749-8DC8-B026F9E3127F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03377E6-E6EA-6741-950C-D16AD286EBE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="20320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="125">
   <si>
     <t>Hotel</t>
   </si>
@@ -147,6 +147,264 @@
   </si>
   <si>
     <t>sadaf_beauty_diary</t>
+  </si>
+  <si>
+    <t>2019-04-14 00-01</t>
+  </si>
+  <si>
+    <t>2019-04-14 01-01</t>
+  </si>
+  <si>
+    <t>2019-04-14 02-01</t>
+  </si>
+  <si>
+    <t>2019-04-14 03-01</t>
+  </si>
+  <si>
+    <t>2019-04-14 04-01</t>
+  </si>
+  <si>
+    <t>2019-04-14 05-01</t>
+  </si>
+  <si>
+    <t>2019-04-14 06-01</t>
+  </si>
+  <si>
+    <t>2019-04-14 07-01</t>
+  </si>
+  <si>
+    <t>2019-04-14 08-01</t>
+  </si>
+  <si>
+    <t>2019-04-14 09-01</t>
+  </si>
+  <si>
+    <t>2019-04-14 10-01</t>
+  </si>
+  <si>
+    <t>2019-04-14 11-01</t>
+  </si>
+  <si>
+    <t>2019-04-14 12-01</t>
+  </si>
+  <si>
+    <t>2019-04-14 13-01</t>
+  </si>
+  <si>
+    <t>2019-04-14 14-01</t>
+  </si>
+  <si>
+    <t>2019-04-14 15-01</t>
+  </si>
+  <si>
+    <t>2019-04-14 16-01</t>
+  </si>
+  <si>
+    <t>2019-04-14 17-01</t>
+  </si>
+  <si>
+    <t>2019-04-14 18-01</t>
+  </si>
+  <si>
+    <t>2019-04-14 19-01</t>
+  </si>
+  <si>
+    <t>2019-04-14 20-01</t>
+  </si>
+  <si>
+    <t>2019-04-14 21-01</t>
+  </si>
+  <si>
+    <t>2019-04-14 22-01</t>
+  </si>
+  <si>
+    <t>2019-04-14 23-01</t>
+  </si>
+  <si>
+    <t>2019-04-15 00-01</t>
+  </si>
+  <si>
+    <t>2019-04-15 01-01</t>
+  </si>
+  <si>
+    <t>2019-04-15 02-01</t>
+  </si>
+  <si>
+    <t>2019-04-15 03-01</t>
+  </si>
+  <si>
+    <t>2019-04-15 04-01</t>
+  </si>
+  <si>
+    <t>2019-04-15 05-01</t>
+  </si>
+  <si>
+    <t>2019-04-15 06-01</t>
+  </si>
+  <si>
+    <t>2019-04-15 07-01</t>
+  </si>
+  <si>
+    <t>2019-04-15 08-01</t>
+  </si>
+  <si>
+    <t>2019-04-15 09-01</t>
+  </si>
+  <si>
+    <t>2019-04-15 10-01</t>
+  </si>
+  <si>
+    <t>2019-04-15 11-01</t>
+  </si>
+  <si>
+    <t>2019-04-15 12-01</t>
+  </si>
+  <si>
+    <t>2019-04-15 13-01</t>
+  </si>
+  <si>
+    <t>2019-04-15 14-01</t>
+  </si>
+  <si>
+    <t>2019-04-15 15-01</t>
+  </si>
+  <si>
+    <t>2019-04-15 16-01</t>
+  </si>
+  <si>
+    <t>2019-04-15 17-01</t>
+  </si>
+  <si>
+    <t>2019-04-15 18-01</t>
+  </si>
+  <si>
+    <t>2019-04-15 19-01</t>
+  </si>
+  <si>
+    <t>2019-04-15 20-01</t>
+  </si>
+  <si>
+    <t>2019-04-15 21-01</t>
+  </si>
+  <si>
+    <t>2019-04-15 22-01</t>
+  </si>
+  <si>
+    <t>2019-04-15 23-01</t>
+  </si>
+  <si>
+    <t>2019-04-16 00-01</t>
+  </si>
+  <si>
+    <t>2019-04-16 01-01</t>
+  </si>
+  <si>
+    <t>2019-04-16 02-01</t>
+  </si>
+  <si>
+    <t>2019-04-16 03-01</t>
+  </si>
+  <si>
+    <t>2019-04-16 04-01</t>
+  </si>
+  <si>
+    <t>2019-04-16 05-01</t>
+  </si>
+  <si>
+    <t>2019-04-16 06-01</t>
+  </si>
+  <si>
+    <t>2019-04-16 07-01</t>
+  </si>
+  <si>
+    <t>2019-04-16 08-01</t>
+  </si>
+  <si>
+    <t>2019-04-16 09-01</t>
+  </si>
+  <si>
+    <t>2019-04-16 10-01</t>
+  </si>
+  <si>
+    <t>2019-04-16 11-01</t>
+  </si>
+  <si>
+    <t>2019-04-16 12-01</t>
+  </si>
+  <si>
+    <t>2019-04-16 13-01</t>
+  </si>
+  <si>
+    <t>2019-04-16 14-01</t>
+  </si>
+  <si>
+    <t>2019-04-16 15-01</t>
+  </si>
+  <si>
+    <t>2019-04-16 16-01</t>
+  </si>
+  <si>
+    <t>2019-04-16 17-01</t>
+  </si>
+  <si>
+    <t>2019-04-16 18-01</t>
+  </si>
+  <si>
+    <t>2019-04-16 19-01</t>
+  </si>
+  <si>
+    <t>2019-04-16 20-01</t>
+  </si>
+  <si>
+    <t>2019-04-16 21-01</t>
+  </si>
+  <si>
+    <t>2019-04-16 22-01</t>
+  </si>
+  <si>
+    <t>2019-04-16 23-01</t>
+  </si>
+  <si>
+    <t>2019-04-17 00-01</t>
+  </si>
+  <si>
+    <t>2019-04-17 01-01</t>
+  </si>
+  <si>
+    <t>2019-04-17 02-01</t>
+  </si>
+  <si>
+    <t>2019-04-17 03-01</t>
+  </si>
+  <si>
+    <t>2019-04-17 04-01</t>
+  </si>
+  <si>
+    <t>2019-04-17 05-01</t>
+  </si>
+  <si>
+    <t>2019-04-17 06-01</t>
+  </si>
+  <si>
+    <t>2019-04-17 07-01</t>
+  </si>
+  <si>
+    <t>2019-04-17 08-01</t>
+  </si>
+  <si>
+    <t>2019-04-17 09-01</t>
+  </si>
+  <si>
+    <t>2019-04-17 10-01</t>
+  </si>
+  <si>
+    <t>2019-04-17 11-01</t>
+  </si>
+  <si>
+    <t>2019-04-17 12-01</t>
+  </si>
+  <si>
+    <t>2019-04-17 13-01</t>
   </si>
 </sst>
 </file>
@@ -199,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -211,6 +469,8 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -525,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:CO1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -536,13 +796,13 @@
     <col min="1" max="1" width="29.83203125" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.5" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" customWidth="1"/>
     <col min="8" max="26" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,8 +824,266 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BK1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="BL1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="BN1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BO1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BP1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BR1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="BV1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BW1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BX1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="BZ1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="CB1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="CC1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="CD1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="CE1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="CG1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="CH1" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="CI1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="CJ1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="CK1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="CL1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="CM1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="CN1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="CO1" s="5" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -587,8 +1105,266 @@
       <c r="G2" s="1">
         <v>1109</v>
       </c>
+      <c r="H2" s="6">
+        <v>171</v>
+      </c>
+      <c r="I2" s="6">
+        <v>171</v>
+      </c>
+      <c r="J2" s="6">
+        <v>171</v>
+      </c>
+      <c r="K2" s="6">
+        <v>171</v>
+      </c>
+      <c r="L2" s="6">
+        <v>171</v>
+      </c>
+      <c r="M2" s="6">
+        <v>171</v>
+      </c>
+      <c r="N2" s="6">
+        <v>171</v>
+      </c>
+      <c r="O2" s="6">
+        <v>171</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>171</v>
+      </c>
+      <c r="R2" s="6">
+        <v>171</v>
+      </c>
+      <c r="S2" s="6">
+        <v>0</v>
+      </c>
+      <c r="T2" s="6">
+        <v>171</v>
+      </c>
+      <c r="U2" s="6">
+        <v>0</v>
+      </c>
+      <c r="V2" s="6">
+        <v>171</v>
+      </c>
+      <c r="W2" s="6">
+        <v>171</v>
+      </c>
+      <c r="X2" s="6">
+        <v>171</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>171</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>171</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>171</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>171</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>171</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>171</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>171</v>
+      </c>
+      <c r="AI2" s="6">
+        <v>171</v>
+      </c>
+      <c r="AJ2" s="6">
+        <v>171</v>
+      </c>
+      <c r="AK2" s="6">
+        <v>171</v>
+      </c>
+      <c r="AL2" s="6">
+        <v>171</v>
+      </c>
+      <c r="AM2" s="6">
+        <v>171</v>
+      </c>
+      <c r="AN2" s="6">
+        <v>171</v>
+      </c>
+      <c r="AO2" s="6">
+        <v>171</v>
+      </c>
+      <c r="AP2" s="6">
+        <v>171</v>
+      </c>
+      <c r="AQ2" s="6">
+        <v>171</v>
+      </c>
+      <c r="AR2" s="6">
+        <v>171</v>
+      </c>
+      <c r="AS2" s="6">
+        <v>171</v>
+      </c>
+      <c r="AT2" s="6">
+        <v>171</v>
+      </c>
+      <c r="AU2" s="6">
+        <v>171</v>
+      </c>
+      <c r="AV2" s="6">
+        <v>171</v>
+      </c>
+      <c r="AW2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="6">
+        <v>171</v>
+      </c>
+      <c r="AY2" s="6">
+        <v>171</v>
+      </c>
+      <c r="AZ2" s="6">
+        <v>172</v>
+      </c>
+      <c r="BA2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="6">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="6">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="6">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="6">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="6">
+        <v>0</v>
+      </c>
+      <c r="CE2" s="6">
+        <v>0</v>
+      </c>
+      <c r="CF2" s="6">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="6">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="6">
+        <v>0</v>
+      </c>
+      <c r="CI2" s="6">
+        <v>0</v>
+      </c>
+      <c r="CJ2" s="6">
+        <v>0</v>
+      </c>
+      <c r="CK2" s="6">
+        <v>0</v>
+      </c>
+      <c r="CL2" s="6">
+        <v>0</v>
+      </c>
+      <c r="CM2" s="6">
+        <v>0</v>
+      </c>
+      <c r="CN2" s="6">
+        <v>0</v>
+      </c>
+      <c r="CO2" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -611,7 +1387,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -634,7 +1410,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -657,7 +1433,7 @@
         <v>5527</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -680,7 +1456,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -703,7 +1479,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -726,7 +1502,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
@@ -749,7 +1525,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -772,7 +1548,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -795,11 +1571,11 @@
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
